--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 12C/PRUEBA_TEMPERATURA_6_12C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 12C/PRUEBA_TEMPERATURA_6_12C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,124 +73,103 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 04:23:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:24:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:25:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:26:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:27:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:28:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:29:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:30:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:31:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:32:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:33:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:34:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:35:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:36:51</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:37:51</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:38:52</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:39:52</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:40:53</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:41:53</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:42:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:43:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:44:55</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:45:55</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:46:56</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:47:56</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:48:57</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:49:57</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:50:58</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:51:58</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:52:59</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:53:59</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:55:00</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:56:00</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:57:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:58:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:59:02</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:00:02</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:01:03</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:02:03</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:03:03</t>
+    <t>2023-12-10 06:24:17</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:25:18</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:26:20</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:27:21</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:28:23</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:29:24</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:30:26</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:31:28</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:32:29</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:33:31</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:34:32</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:35:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:36:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:37:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:38:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:39:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:40:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:41:44</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:42:45</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:43:47</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:44:48</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:45:50</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:46:52</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:47:53</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:48:55</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:49:56</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:50:58</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:52:00</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:53:01</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:54:03</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:55:04</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:56:06</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:57:08</t>
   </si>
 </sst>
 </file>
@@ -857,129 +836,108 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$41</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>25.935314685314601</c:v>
+                  <c:v>29.082167832167801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.837412587412501</c:v>
+                  <c:v>25.017482517482499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.199300699300601</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>19.2482517482517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.674825174825099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16.625874125874098</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.019230769230699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.3146853146852</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>17.1503496503496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.756993006993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.839160839160799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.839160839160799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.839160839160799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.576923076923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.839160839160799</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.576923076923</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.576923076923</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>15.445804195804101</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.1346153846153</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.872377622377501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.741258741258701</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.872377622377501</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.741258741258701</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.347902097902001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.216783216783099</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.347902097902001</c:v>
+                  <c:v>15.7080419580419</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.741258741258701</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.741258741258701</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.445804195804101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1025,6 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="26"/>
           <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1237,37 +1194,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.576923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.7080419580419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.839160839160799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.347902097902001</c:v>
+                  <c:v>15.576923076923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.7080419580419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>15.576923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.445804195804101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.216783216783099</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.4790209790209</c:v>
+                  <c:v>15.7080419580419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.347902097902001</c:v>
+                  <c:v>15.445804195804101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1321,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.407501589319681</c:v>
+                  <c:v>15.684202161474825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.407501589319681</c:v>
+                  <c:v>15.684202161474825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,17 +3095,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.935314685314601</v>
+        <v>29.082167832167801</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.1192129633855075E-2</v>
+        <v>8.55324073927477E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3165,14 +3122,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.837412587412501</v>
+        <v>25.017482517482499</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-8</f>
-        <v>32</v>
+        <f>COUNT(E:E)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3189,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.739510489510401</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3206,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.9038461538461</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3223,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.199300699300601</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3240,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.625874125874098</v>
+        <v>19.2482517482517</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3257,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>17.019230769230699</v>
+        <v>17.674825174825099</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3274,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.3146853146852</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3291,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.0524475524475</v>
+        <v>16.625874125874098</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3308,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.445804195804101</v>
+        <v>17.1503496503496</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3325,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.3968531468531</v>
+        <v>16.756993006993</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3342,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.1346153846153</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3359,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.265734265734199</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3376,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.872377622377501</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3393,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.741258741258701</v>
+        <v>15.839160839160799</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3410,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.872377622377501</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3427,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.4790209790209</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3444,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.4790209790209</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3461,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.216783216783099</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3478,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.741258741258701</v>
+        <v>15.839160839160799</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3495,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.4790209790209</v>
+        <v>15.839160839160799</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3512,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.4790209790209</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3529,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.4790209790209</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3546,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.4790209790209</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3563,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>13.4790209790209</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3580,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>13.347902097902001</v>
+        <v>15.839160839160799</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>13.4790209790209</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3614,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>13.216783216783099</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3631,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13.4790209790209</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3648,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>13.216783216783099</v>
+        <v>15.445804195804101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3665,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>13.4790209790209</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3682,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>13.347902097902001</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3699,126 +3656,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>13.741258741258701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>13.741258741258701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>13.4790209790209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>13.4790209790209</v>
+        <v>15.445804195804101</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3670,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,45 +3695,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:44:55</v>
+        <v>2023-12-10 06:46:52</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.9702797202797</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>13.407501589319681</v>
+        <v>15.684202161474825</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:45:55</v>
+        <v>2023-12-10 06:47:53</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.576923076923</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>13.407501589319681</v>
+        <v>15.684202161474825</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:46:56</v>
+        <v>2023-12-10 06:48:55</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.7080419580419</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3904,35 +3742,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:47:56</v>
+        <v>2023-12-10 06:49:56</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.839160839160799</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.10754364496479599</v>
+        <v>0.18373663891926684</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:48:57</v>
+        <v>2023-12-10 06:50:58</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>13.347902097902001</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:49:57</v>
+        <v>2023-12-10 06:52:00</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.7080419580419</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3941,36 +3779,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:50:58</v>
+        <v>2023-12-10 06:53:01</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>15.576923076923</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>13.4790209790209</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:51:58</v>
+        <v>2023-12-10 06:54:03</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.445804195804101</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:52:59</v>
+        <v>2023-12-10 06:55:04</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783099</v>
+        <v>15.9702797202797</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3979,25 +3817,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:53:59</v>
+        <v>2023-12-10 06:56:06</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>13.4790209790209</v>
+        <v>15.7080419580419</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>13.216783216783099</v>
+        <v>15.445804195804101</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:55:00</v>
+        <v>2023-12-10 06:57:08</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>13.347902097902001</v>
+        <v>15.445804195804101</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
